--- a/ExitSequence/FinalSeq.xlsx
+++ b/ExitSequence/FinalSeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ckat\Documents\UiPath\P2Main\Team1EmptyString-P2\ExitSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C80F8-62C4-4435-AD10-116C4129A895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29AC41-1A75-4AC3-91A1-CCC4799225A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="2250" windowWidth="14550" windowHeight="10740" xr2:uid="{DBD21606-EE47-4DD9-A9C5-07DE30295941}"/>
+    <workbookView xWindow="2820" yWindow="2295" windowWidth="14550" windowHeight="10740" xr2:uid="{DBD21606-EE47-4DD9-A9C5-07DE30295941}"/>
   </bookViews>
   <sheets>
     <sheet name="Zoom" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Twitter" sheetId="4" r:id="rId3"/>
     <sheet name="Outlook" sheetId="2" r:id="rId4"/>
     <sheet name="Youtube" sheetId="3" r:id="rId5"/>
+    <sheet name="Photoshop" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,20 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
     <t>Time Spent</t>
   </si>
   <si>
-    <t>Zoom</t>
-  </si>
-  <si>
     <t>06:21:45</t>
   </si>
   <si>
@@ -64,24 +59,15 @@
     <t>06:14:35</t>
   </si>
   <si>
-    <t>Microsoft Word</t>
-  </si>
-  <si>
     <t>02:51:23</t>
   </si>
   <si>
     <t>00:16:36</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>00:37:36</t>
   </si>
   <si>
-    <t>Outlook</t>
-  </si>
-  <si>
     <t>00:16:31</t>
   </si>
   <si>
@@ -91,13 +77,16 @@
     <t>00:02:19</t>
   </si>
   <si>
-    <t>Youtube</t>
-  </si>
-  <si>
     <t>02:23:18</t>
   </si>
   <si>
     <t>02:43:11</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TimeSpent</t>
   </si>
 </sst>
 </file>
@@ -142,10 +131,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -461,152 +450,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E20434-A4F9-47F2-8867-673A18CAA360}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44037</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44166</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44167</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>44168</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="2"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594DA11B-6D92-4CC5-B778-7B737B97D30A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12 D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,37 +600,28 @@
     <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44166</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>44168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D950245B-3D8F-4822-94FD-BEE6B40AE72A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,47 +642,37 @@
     <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44167</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,10 +681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC5AB5-0269-4DCE-A2C7-E29DFE2F0836}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,99 +692,77 @@
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44166</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>44167</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>44168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,10 +771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A4573-0A47-4124-B317-DCFB77C13B1E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3 A3 A3:C3"/>
+      <selection activeCell="E6" sqref="E6 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,40 +782,66 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44167</v>
+      <c r="A2" s="4">
+        <v>44169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44168</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
--- a/ExitSequence/FinalSeq.xlsx
+++ b/ExitSequence/FinalSeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ckat\Documents\UiPath\P2Main\Team1EmptyString-P2\ExitSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29AC41-1A75-4AC3-91A1-CCC4799225A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68580E6-458E-400E-A8BD-5FE20EE9265D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2295" windowWidth="14550" windowHeight="10740" xr2:uid="{DBD21606-EE47-4DD9-A9C5-07DE30295941}"/>
+    <workbookView xWindow="9345" yWindow="1845" windowWidth="14550" windowHeight="10740" xr2:uid="{DBD21606-EE47-4DD9-A9C5-07DE30295941}"/>
   </bookViews>
   <sheets>
     <sheet name="Zoom" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Twitter" sheetId="4" r:id="rId3"/>
     <sheet name="Outlook" sheetId="2" r:id="rId4"/>
     <sheet name="Youtube" sheetId="3" r:id="rId5"/>
-    <sheet name="Photoshop" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -81,12 +80,6 @@
   </si>
   <si>
     <t>02:43:11</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TimeSpent</t>
   </si>
 </sst>
 </file>
@@ -131,10 +124,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E20434-A4F9-47F2-8867-673A18CAA360}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +455,7 @@
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,116 +463,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44037</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>44166</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44167</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>44168</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,7 +586,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="C5 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,15 +603,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44166</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>44168</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -631,10 +625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D950245B-3D8F-4822-94FD-BEE6B40AE72A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +636,7 @@
     <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,28 +644,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44167</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
   </sheetData>
@@ -681,10 +677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC5AB5-0269-4DCE-A2C7-E29DFE2F0836}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +688,7 @@
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,68 +696,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44166</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>44167</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>44168</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="6"/>
     </row>
   </sheetData>
@@ -771,10 +768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A4573-0A47-4124-B317-DCFB77C13B1E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6 E6"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +779,7 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,58 +787,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44167</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>44168</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44169</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
 </file>